--- a/hw1_sources/q2.xlsx
+++ b/hw1_sources/q2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniofoglia/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/UNI_documents_by_readdle/Semester_7/Extrasolar Planets and Astrobiology/Astro_HW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniofoglia/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/UNI_documents_by_readdle/Semester_7/Extrasolar Planets and Astrobiology/Astro_HW/github/hw1_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213E41F5-81A7-A843-A31C-AACF150FE6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9CFE3E-274A-F646-85D5-D42EABB8FF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4400" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{209F02B2-34D0-F340-90D0-2044483E1ACE}"/>
+    <workbookView xWindow="-4400" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{209F02B2-34D0-F340-90D0-2044483E1ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -139,8 +139,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -215,19 +215,19 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE47231-8F84-3549-AF50-26187DBF279B}">
   <dimension ref="F4:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,7 +607,7 @@
         <v>7600521.5999999996</v>
       </c>
       <c r="L5" s="1">
-        <f>2 * PI() * G5 * POWER(I5,2) / K5</f>
+        <f t="shared" ref="L5:L12" si="0">2 * PI() * G5 * POWER(I5,2) / K5</f>
         <v>9.1482731338957015E+38</v>
       </c>
     </row>
@@ -623,18 +623,18 @@
         <v>108200000</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I12" si="0">H6*1000</f>
+        <f t="shared" ref="I6:I12" si="1">H6*1000</f>
         <v>108200000000</v>
       </c>
       <c r="J6" s="2">
         <v>224.70099999999999</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" ref="K6:K12" si="1">J6*86400</f>
+        <f t="shared" ref="K6:K12" si="2">J6*86400</f>
         <v>19414166.399999999</v>
       </c>
       <c r="L6" s="1">
-        <f>2 * PI() * G6 * POWER(I6,2) / K6</f>
+        <f t="shared" si="0"/>
         <v>1.8441819090637562E+40</v>
       </c>
     </row>
@@ -650,18 +650,18 @@
         <v>149600000</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149600000000</v>
       </c>
       <c r="J7" s="3">
         <v>365.25599999999997</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31558118.399999999</v>
       </c>
       <c r="L7" s="1">
-        <f>2 * PI() * G7 * POWER(I7,2) / K7</f>
+        <f t="shared" si="0"/>
         <v>2.6611312645778825E+40</v>
       </c>
     </row>
@@ -677,18 +677,18 @@
         <v>227900000</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>227900000000</v>
       </c>
       <c r="J8" s="3">
         <v>686.98</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59355072</v>
       </c>
       <c r="L8" s="1">
-        <f>2 * PI() * G8 * POWER(I8,2) / K8</f>
+        <f t="shared" si="0"/>
         <v>3.5280599316605981E+39</v>
       </c>
     </row>
@@ -704,7 +704,7 @@
         <v>778600000</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>778600000000</v>
       </c>
       <c r="J9" s="3">
@@ -715,7 +715,7 @@
         <v>374335689.60000002</v>
       </c>
       <c r="L9" s="1">
-        <f>2 * PI() * G9 * POWER(I9,2) / K9</f>
+        <f t="shared" si="0"/>
         <v>1.9314051502963033E+43</v>
       </c>
     </row>
@@ -731,18 +731,18 @@
         <v>1433500000</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1433500000000</v>
       </c>
       <c r="J10" s="2">
         <v>10759.22</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>929596608</v>
       </c>
       <c r="L10" s="1">
-        <f>2 * PI() * G10 * POWER(I10,2) / K10</f>
+        <f t="shared" si="0"/>
         <v>7.8935737750186749E+42</v>
       </c>
     </row>
@@ -758,18 +758,18 @@
         <v>2872500000</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2872500000000</v>
       </c>
       <c r="J11" s="3">
         <v>30685.4</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2651218560</v>
       </c>
       <c r="L11" s="1">
-        <f>2 * PI() * G11 * POWER(I11,2) / K11</f>
+        <f t="shared" si="0"/>
         <v>1.69757578137864E+42</v>
       </c>
     </row>
@@ -785,18 +785,18 @@
         <v>4495100000</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4495100000000</v>
       </c>
       <c r="J12" s="2">
         <v>60189</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5200329600</v>
       </c>
       <c r="L12" s="1">
-        <f>2 * PI() * G12 * POWER(I12,2) / K12</f>
+        <f t="shared" si="0"/>
         <v>2.5001486943258224E+42</v>
       </c>
     </row>

--- a/hw1_sources/q2.xlsx
+++ b/hw1_sources/q2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniofoglia/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/UNI_documents_by_readdle/Semester_7/Extrasolar Planets and Astrobiology/Astro_HW/github/hw1_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9CFE3E-274A-F646-85D5-D42EABB8FF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C76934C-66B2-034C-AD9C-9E4327045A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4400" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{209F02B2-34D0-F340-90D0-2044483E1ACE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{209F02B2-34D0-F340-90D0-2044483E1ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <t>Sun's percentage of total angular momentum</t>
   </si>
   <si>
-    <t>= 1 / (609.12 * 60 * 60)</t>
+    <t>= 1 / (609.12 * 60 * 60) * 2 * PI()</t>
   </si>
 </sst>
 </file>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE47231-8F84-3549-AF50-26187DBF279B}">
   <dimension ref="F4:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="165" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,12 +865,12 @@
         <v>3.8497239894600004E+47</v>
       </c>
       <c r="K19" s="5">
-        <f xml:space="preserve"> 1 / (609.12 * 60 * 60)</f>
-        <v>4.5603128739456557E-7</v>
+        <f xml:space="preserve"> 1 / (609.12 * 60 * 60) * 2 * PI()</f>
+        <v>2.8653290845717256E-6</v>
       </c>
       <c r="L19" s="10">
         <f xml:space="preserve"> J19*K19</f>
-        <v>1.7555945870271868E+41</v>
+        <v>1.1030726114573234E+42</v>
       </c>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
       </c>
       <c r="L24" s="13">
         <f>L19/L16</f>
-        <v>5.5813167857039448E-3</v>
+        <v>3.506844762264983E-2</v>
       </c>
     </row>
     <row r="25" spans="6:12" x14ac:dyDescent="0.2">

--- a/hw1_sources/q2.xlsx
+++ b/hw1_sources/q2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniofoglia/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/UNI_documents_by_readdle/Semester_7/Extrasolar Planets and Astrobiology/Astro_HW/github/hw1_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C76934C-66B2-034C-AD9C-9E4327045A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEE2783-A671-9847-BFB4-1E29A5D3CD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{209F02B2-34D0-F340-90D0-2044483E1ACE}"/>
   </bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE47231-8F84-3549-AF50-26187DBF279B}">
   <dimension ref="F4:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="165" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
